--- a/reports/daily_drivers/daily_report_2025-05-20.xlsx
+++ b/reports/daily_drivers/daily_report_2025-05-20.xlsx
@@ -26516,7 +26516,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-05-21T14:06:16.045324</t>
+          <t>2025-05-21T14:09:19.364210</t>
         </is>
       </c>
     </row>
